--- a/2018_dengue_extracted.xlsx
+++ b/2018_dengue_extracted.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danalevi/Documents/GitHub/topic04_team04/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederik/Documents/GitHub/Projekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{717B465E-A69F-DE4A-95AE-7C6C6DB8E781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFC5F85-4BB7-BC41-BB59-0644E2717782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -261,9 +261,6 @@
     <t>Jan</t>
   </si>
   <si>
-    <t xml:space="preserve">Reporting Areas </t>
-  </si>
-  <si>
     <t>Feb</t>
   </si>
   <si>
@@ -295,6 +292,9 @@
   </si>
   <si>
     <t>Dec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reporting_areas </t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -436,16 +436,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -806,57 +803,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25" style="7"/>
+    <col min="1" max="1" width="25"/>
     <col min="2" max="6" width="7"/>
     <col min="7" max="8" width="8"/>
     <col min="9" max="13" width="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>78</v>
+      <c r="A1" t="s">
+        <v>89</v>
       </c>
       <c r="B1" t="s">
         <v>77</v>
       </c>
       <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
         <v>79</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>80</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>81</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>82</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>83</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>84</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>85</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>86</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>87</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>88</v>
-      </c>
-      <c r="M1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">

--- a/2018_dengue_extracted.xlsx
+++ b/2018_dengue_extracted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederik/Documents/GitHub/Projekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2db956eb42fcc03/Dokumente/GitHub/topic04_team04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFC5F85-4BB7-BC41-BB59-0644E2717782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{8CFC5F85-4BB7-BC41-BB59-0644E2717782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31DFE35A-18CF-4E6A-A901-E3C4A4FEC1D4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -294,7 +294,7 @@
     <t>Dec</t>
   </si>
   <si>
-    <t xml:space="preserve">Reporting_areas </t>
+    <t xml:space="preserve">Reporting areas </t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -805,7 +805,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25"/>
     <col min="2" max="6" width="7"/>
@@ -813,7 +813,7 @@
     <col min="9" max="13" width="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -854,7 +854,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>69</v>
       </c>
@@ -895,7 +895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
@@ -936,7 +936,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
@@ -977,7 +977,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>58</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>65</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>46</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>66</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>47</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>48</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>74</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>38</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>55</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>75</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>13</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>14</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>59</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>15</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>56</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>70</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>32</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>39</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>60</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>67</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>26</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>76</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>16</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>4</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>61</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>62</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>33</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>34</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>35</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>5</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>0</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>6</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>17</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>19</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>40</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>27</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>20</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>18</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>1</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>49</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>41</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>2</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>42</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>50</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>57</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>51</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>63</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>52</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>43</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>44</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>36</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>7</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>71</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>37</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>8</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>21</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>45</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>3</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>68</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>22</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>9</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>53</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>72</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>64</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>28</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>23</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>10</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>73</v>
       </c>

--- a/2018_dengue_extracted.xlsx
+++ b/2018_dengue_extracted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2db956eb42fcc03/Dokumente/GitHub/topic04_team04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{8CFC5F85-4BB7-BC41-BB59-0644E2717782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31DFE35A-18CF-4E6A-A901-E3C4A4FEC1D4}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{8CFC5F85-4BB7-BC41-BB59-0644E2717782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9074726B-680A-42C3-8406-EDA33386B0B6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -273,18 +273,9 @@
     <t>May</t>
   </si>
   <si>
-    <t>Jun</t>
-  </si>
-  <si>
-    <t>Jul</t>
-  </si>
-  <si>
     <t>Aug</t>
   </si>
   <si>
-    <t>Sep</t>
-  </si>
-  <si>
     <t>Oct</t>
   </si>
   <si>
@@ -295,6 +286,15 @@
   </si>
   <si>
     <t xml:space="preserve">Reporting areas </t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>Sept</t>
   </si>
 </sst>
 </file>
@@ -536,6 +536,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -803,7 +807,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -815,7 +821,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
         <v>77</v>
@@ -833,25 +839,25 @@
         <v>81</v>
       </c>
       <c r="G1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" t="s">
         <v>82</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" t="s">
         <v>83</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>84</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>85</v>
-      </c>
-      <c r="K1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L1" t="s">
-        <v>87</v>
-      </c>
-      <c r="M1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">

--- a/2018_dengue_extracted.xlsx
+++ b/2018_dengue_extracted.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2db956eb42fcc03/Dokumente/GitHub/topic04_team04/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_fiona\Info\topic04_team04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{8CFC5F85-4BB7-BC41-BB59-0644E2717782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9074726B-680A-42C3-8406-EDA33386B0B6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -285,22 +284,22 @@
     <t>Dec</t>
   </si>
   <si>
-    <t xml:space="preserve">Reporting areas </t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>Sept</t>
+    <t xml:space="preserve">Reporting_areas </t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Sep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -447,7 +446,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -503,7 +502,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -804,14 +803,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7890625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="25"/>
     <col min="2" max="6" width="7"/>
@@ -819,7 +818,7 @@
     <col min="9" max="13" width="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -860,7 +859,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="19.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>69</v>
       </c>
@@ -901,7 +900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="19.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
@@ -942,7 +941,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
@@ -983,7 +982,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
         <v>58</v>
       </c>
@@ -1024,7 +1023,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="19.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>65</v>
       </c>
@@ -1065,7 +1064,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="19.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
         <v>46</v>
       </c>
@@ -1106,7 +1105,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="19.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -1147,7 +1146,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="19.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
         <v>66</v>
       </c>
@@ -1188,7 +1187,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4" t="s">
         <v>47</v>
       </c>
@@ -1229,7 +1228,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -1270,7 +1269,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -1311,7 +1310,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4" t="s">
         <v>48</v>
       </c>
@@ -1352,7 +1351,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4" t="s">
         <v>74</v>
       </c>
@@ -1393,7 +1392,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
@@ -1434,7 +1433,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1475,7 +1474,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4" t="s">
         <v>38</v>
       </c>
@@ -1516,7 +1515,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4" t="s">
         <v>55</v>
       </c>
@@ -1557,7 +1556,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4" t="s">
         <v>75</v>
       </c>
@@ -1598,7 +1597,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4" t="s">
         <v>13</v>
       </c>
@@ -1639,7 +1638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4" t="s">
         <v>14</v>
       </c>
@@ -1680,7 +1679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4" t="s">
         <v>59</v>
       </c>
@@ -1721,7 +1720,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
@@ -1762,7 +1761,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4" t="s">
         <v>15</v>
       </c>
@@ -1803,7 +1802,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4" t="s">
         <v>56</v>
       </c>
@@ -1844,7 +1843,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4" t="s">
         <v>70</v>
       </c>
@@ -1885,7 +1884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="4" t="s">
         <v>32</v>
       </c>
@@ -1926,7 +1925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="4" t="s">
         <v>39</v>
       </c>
@@ -1967,7 +1966,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="4" t="s">
         <v>60</v>
       </c>
@@ -2008,7 +2007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="4" t="s">
         <v>67</v>
       </c>
@@ -2049,7 +2048,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="4" t="s">
         <v>26</v>
       </c>
@@ -2090,7 +2089,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="4" t="s">
         <v>76</v>
       </c>
@@ -2131,7 +2130,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="5" t="s">
         <v>16</v>
       </c>
@@ -2172,7 +2171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="4" t="s">
         <v>4</v>
       </c>
@@ -2213,7 +2212,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="4" t="s">
         <v>61</v>
       </c>
@@ -2254,7 +2253,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="4" t="s">
         <v>62</v>
       </c>
@@ -2295,7 +2294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="4" t="s">
         <v>33</v>
       </c>
@@ -2336,7 +2335,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="4" t="s">
         <v>34</v>
       </c>
@@ -2377,7 +2376,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="4" t="s">
         <v>35</v>
       </c>
@@ -2418,7 +2417,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="4" t="s">
         <v>5</v>
       </c>
@@ -2459,7 +2458,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="4" t="s">
         <v>0</v>
       </c>
@@ -2500,7 +2499,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="4" t="s">
         <v>6</v>
       </c>
@@ -2541,7 +2540,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="4" t="s">
         <v>17</v>
       </c>
@@ -2582,7 +2581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="4" t="s">
         <v>19</v>
       </c>
@@ -2623,7 +2622,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="4" t="s">
         <v>40</v>
       </c>
@@ -2664,7 +2663,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="4" t="s">
         <v>27</v>
       </c>
@@ -2705,7 +2704,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="4" t="s">
         <v>20</v>
       </c>
@@ -2746,7 +2745,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="4" t="s">
         <v>18</v>
       </c>
@@ -2787,7 +2786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="4" t="s">
         <v>1</v>
       </c>
@@ -2828,7 +2827,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="4" t="s">
         <v>49</v>
       </c>
@@ -2869,7 +2868,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="4" t="s">
         <v>41</v>
       </c>
@@ -2910,7 +2909,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="4" t="s">
         <v>2</v>
       </c>
@@ -2951,7 +2950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="4" t="s">
         <v>42</v>
       </c>
@@ -2992,7 +2991,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="4" t="s">
         <v>50</v>
       </c>
@@ -3033,7 +3032,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="4" t="s">
         <v>57</v>
       </c>
@@ -3074,7 +3073,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="4" t="s">
         <v>51</v>
       </c>
@@ -3115,7 +3114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="4" t="s">
         <v>63</v>
       </c>
@@ -3156,7 +3155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="4" t="s">
         <v>52</v>
       </c>
@@ -3197,7 +3196,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="4" t="s">
         <v>43</v>
       </c>
@@ -3238,7 +3237,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="4" t="s">
         <v>44</v>
       </c>
@@ -3279,7 +3278,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="4" t="s">
         <v>36</v>
       </c>
@@ -3320,7 +3319,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="4" t="s">
         <v>7</v>
       </c>
@@ -3361,7 +3360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="4" t="s">
         <v>71</v>
       </c>
@@ -3402,7 +3401,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="4" t="s">
         <v>37</v>
       </c>
@@ -3443,7 +3442,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="4" t="s">
         <v>8</v>
       </c>
@@ -3484,7 +3483,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="4" t="s">
         <v>21</v>
       </c>
@@ -3525,7 +3524,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="4" t="s">
         <v>45</v>
       </c>
@@ -3566,7 +3565,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="4" t="s">
         <v>3</v>
       </c>
@@ -3607,7 +3606,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="4" t="s">
         <v>68</v>
       </c>
@@ -3648,7 +3647,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="4" t="s">
         <v>22</v>
       </c>
@@ -3689,7 +3688,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="4" t="s">
         <v>9</v>
       </c>
@@ -3730,7 +3729,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="4" t="s">
         <v>53</v>
       </c>
@@ -3771,7 +3770,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="4" t="s">
         <v>72</v>
       </c>
@@ -3812,7 +3811,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="4" t="s">
         <v>64</v>
       </c>
@@ -3853,7 +3852,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="4" t="s">
         <v>28</v>
       </c>
@@ -3894,7 +3893,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="4" t="s">
         <v>23</v>
       </c>
@@ -3935,7 +3934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="4" t="s">
         <v>10</v>
       </c>
@@ -3976,7 +3975,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="6" t="s">
         <v>73</v>
       </c>
@@ -4018,7 +4017,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M112">
+  <sortState ref="A2:M112">
     <sortCondition ref="A6:A112"/>
   </sortState>
   <conditionalFormatting sqref="A20">

--- a/2018_dengue_extracted.xlsx
+++ b/2018_dengue_extracted.xlsx
@@ -502,7 +502,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -806,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7890625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
